--- a/data/trans_camb/P16A04-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.026515434637602</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.6578806495369053</v>
+        <v>-0.6578806495369051</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.415591536873279</v>
@@ -655,7 +655,7 @@
         <v>0.3894121653428825</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.056035405108104</v>
+        <v>3.056035405108103</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.8436349565882004</v>
@@ -664,7 +664,7 @@
         <v>0.6803878575963083</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.000761972478054</v>
+        <v>1.000761972478053</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.550670731667857</v>
+        <v>-1.74122812953032</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.262604779288887</v>
+        <v>-1.265183101096209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.43870737261514</v>
+        <v>-2.700421185953738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5564816753999073</v>
+        <v>-0.4111539621880948</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.213469447038576</v>
+        <v>-1.240538588868448</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.159264998892575</v>
+        <v>1.161552591174062</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.624759674833394</v>
+        <v>-0.7123981876667862</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.7938425603433472</v>
+        <v>-0.8865148770980649</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.4712079157292297</v>
+        <v>-0.4629327469994777</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.971601534517148</v>
+        <v>3.135121200136243</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.413125238106564</v>
+        <v>3.137967684727711</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9473811866082956</v>
+        <v>0.8182577072214028</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.797203204119543</v>
+        <v>3.874821223721074</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.388634731935619</v>
+        <v>2.526829450457767</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.949596073369356</v>
+        <v>5.285132425924846</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.639978426927338</v>
+        <v>2.635583300468567</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.352480614020491</v>
+        <v>2.303823110703173</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.365066309810544</v>
+        <v>2.263819270436163</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4814756311407907</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3085715910963584</v>
+        <v>-0.3085715910963583</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.412707836492581</v>
@@ -760,7 +760,7 @@
         <v>0.3886188941342062</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>3.049809957843422</v>
+        <v>3.049809957843421</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4997853026302893</v>
@@ -769,7 +769,7 @@
         <v>0.4030746339506307</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5928703183407478</v>
+        <v>0.5928703183407475</v>
       </c>
     </row>
     <row r="8">
@@ -780,29 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5603618269321979</v>
+        <v>-0.5975036477590722</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.426138005240178</v>
+        <v>-0.4553366327129929</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7262024900136653</v>
+        <v>-0.7755631307225348</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6747032785390519</v>
-      </c>
-      <c r="G8" s="6" t="inlineStr"/>
+        <v>-0.5531333560142376</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.855648225618984</v>
+      </c>
       <c r="H8" s="6" t="n">
-        <v>0.178418998933683</v>
+        <v>0.1980799397285669</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3234588285968223</v>
+        <v>-0.3366464623619797</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3572345011642855</v>
+        <v>-0.4118209378351986</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2198368607391216</v>
+        <v>-0.2000267326003457</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +815,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.543850886605088</v>
+        <v>2.426384389350756</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.579140623641885</v>
+        <v>2.461215677028646</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.017881807802113</v>
+        <v>0.9299212658843841</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>11.11920165703991</v>
+        <v>12.92446399063038</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>13.05797654537092</v>
+        <v>14.13414404800068</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.471215300247611</v>
+        <v>2.632549144237685</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.168272095058433</v>
+        <v>2.079026251200629</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.44740290983821</v>
+        <v>2.44233898527832</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +858,7 @@
         <v>0.8462010073126787</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5716815287239394</v>
+        <v>0.5716815287239391</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.4813532347068133</v>
@@ -885,31 +887,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6612282846549464</v>
+        <v>-0.6659424391875082</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6791253038341836</v>
+        <v>-0.7249159035544556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8788614439990075</v>
+        <v>-0.8421008062955433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.770826875173164</v>
+        <v>-2.758038289454514</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.562894138082447</v>
+        <v>-3.704689903338497</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.008481381943656</v>
+        <v>-3.01975764581879</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.162422168275969</v>
+        <v>-1.168778397104301</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.666574167114985</v>
+        <v>-1.50293967543975</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.484939706274073</v>
+        <v>-1.412248205990028</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +922,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.797697240822237</v>
+        <v>2.642784152745818</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.722951886535593</v>
+        <v>2.642441358906151</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.038366906439678</v>
+        <v>2.003272910574124</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.61089045512592</v>
+        <v>1.755746124842803</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4979120070433458</v>
+        <v>0.4732081218797792</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8139864751269928</v>
+        <v>0.7217273481722545</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.555688607113717</v>
+        <v>1.564586888806422</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9966600942403824</v>
+        <v>1.200476719864397</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9790236159328144</v>
+        <v>0.9682633273795028</v>
       </c>
     </row>
     <row r="13">
@@ -961,7 +963,7 @@
         <v>0.8171422446223319</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5520498363316078</v>
+        <v>0.5520498363316074</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1850392052410922</v>
@@ -990,31 +992,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5214112563687553</v>
+        <v>-0.5575806907337016</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5347975949226459</v>
+        <v>-0.5737599389668404</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5791274635053844</v>
+        <v>-0.6242301316645806</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7425370073095324</v>
+        <v>-0.7453205799404853</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8941826551811946</v>
+        <v>-0.9003235278256149</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7819675704111634</v>
+        <v>-0.7563674786770513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4998115417012922</v>
+        <v>-0.5036741034656604</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6633047215688578</v>
+        <v>-0.6222428045820372</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5683103982343136</v>
+        <v>-0.5735761008024313</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1027,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9.008507961627393</v>
+        <v>5.980001118489646</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8.215613214057917</v>
+        <v>5.902712205752161</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.888636917910847</v>
+        <v>5.705445565957353</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.093788101653651</v>
+        <v>1.37996434319224</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.453887813146316</v>
+        <v>0.5239833087814302</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6690493902295972</v>
+        <v>0.5849493625841744</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.287326691348429</v>
+        <v>1.284762130102612</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8970974904695018</v>
+        <v>1.07626222996021</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8601609192082686</v>
+        <v>0.9763842127037327</v>
       </c>
     </row>
     <row r="16">
@@ -1099,31 +1101,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1583333404706728</v>
+        <v>0.1486908257021708</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.931317372470226</v>
+        <v>-1.985840867297202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.87271326778044</v>
+        <v>1.071084941792812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.399799469281954</v>
+        <v>-4.376706951364937</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.421235304644801</v>
+        <v>-3.298553150806223</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.730083953404171</v>
+        <v>-2.548959438132957</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2313270206223927</v>
+        <v>-0.2835822920303324</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.483662587651555</v>
+        <v>-1.593055234631617</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6579536665054702</v>
+        <v>0.8124122007563936</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1136,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.516794725673064</v>
+        <v>4.229391153522978</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9098059594312431</v>
+        <v>0.8791450063779814</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.479987413993198</v>
+        <v>5.73417521230418</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.360150850128548</v>
+        <v>2.458832991769131</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.911426003680798</v>
+        <v>5.674381074801164</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.378001142475122</v>
+        <v>5.156177660194525</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.130852885722493</v>
+        <v>3.195237655357808</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.553116358392831</v>
+        <v>1.521041406506754</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.630062033585332</v>
+        <v>4.633799317146782</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1177,7 @@
         <v>-0.2812030851869383</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.73293068281501</v>
+        <v>1.732930682815011</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.192306248531403</v>
@@ -1193,7 +1195,7 @@
         <v>-0.0289551447340943</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.219904440498303</v>
+        <v>1.219904440498304</v>
       </c>
     </row>
     <row r="20">
@@ -1204,29 +1206,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08439489982562709</v>
+        <v>-0.04434368116277813</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7910052068729565</v>
+        <v>-0.8006310341007558</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2084182889974696</v>
-      </c>
-      <c r="F20" s="6" t="inlineStr"/>
+        <v>0.3279083170644733</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.7957452839700507</v>
+      </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7342778195341085</v>
+        <v>-0.7695478828332002</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5256533222553695</v>
+        <v>-0.5137856526919935</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1329421660920882</v>
+        <v>-0.1478809720197707</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5706258190305669</v>
+        <v>-0.5821480368506183</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1898433816281448</v>
+        <v>0.2239808400300947</v>
       </c>
     </row>
     <row r="21">
@@ -1237,29 +1241,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.346498284803619</v>
+        <v>4.121608527002615</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.074488621989303</v>
+        <v>1.194016072292343</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.022981004351483</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr"/>
+        <v>6.49183656430169</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.482733922876146</v>
+      </c>
       <c r="G21" s="6" t="n">
-        <v>3.281034070155959</v>
+        <v>3.668905739243388</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.466812303612333</v>
+        <v>3.167911840302949</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.107335694085406</v>
+        <v>2.47997897135116</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.104913875041438</v>
+        <v>1.06678186100351</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.282973178269006</v>
+        <v>3.561347933541365</v>
       </c>
     </row>
     <row r="22">
@@ -1289,7 +1295,7 @@
         <v>0.4380488858774783</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.1010868230827282</v>
+        <v>0.1010868230827279</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.397283434806232</v>
@@ -1298,7 +1304,7 @@
         <v>0.4842558459408369</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.3459122856364443</v>
+        <v>0.3459122856364439</v>
       </c>
     </row>
     <row r="23">
@@ -1309,31 +1315,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.08395901289340456</v>
+        <v>-0.09168582820481395</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7129095287867832</v>
+        <v>-0.7201878666843757</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7510943252475447</v>
+        <v>-0.7833570453000736</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3295568334385081</v>
+        <v>-0.3299096030208595</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.336162647134607</v>
+        <v>-1.433485418935392</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.577675763975244</v>
+        <v>-1.415631792604303</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2516416897641587</v>
+        <v>0.2775606791969725</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.5671006780042983</v>
+        <v>-0.5233386932881164</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.6534074480393194</v>
+        <v>-0.6502880989259255</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1350,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.67258209520996</v>
+        <v>2.707369988930927</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.659577118453682</v>
+        <v>1.646697205329999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.844063335754205</v>
+        <v>1.818397658076635</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.684597421644034</v>
+        <v>3.740841611187003</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.156168913014059</v>
+        <v>2.159200149672072</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.587858707902188</v>
+        <v>1.590540924672478</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.577759593529056</v>
+        <v>2.487649926754061</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.453724646429963</v>
+        <v>1.47048663325382</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.402653393498972</v>
+        <v>1.392213331953995</v>
       </c>
     </row>
     <row r="25">
@@ -1394,7 +1400,7 @@
         <v>0.1530104573662071</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03530962304036382</v>
+        <v>0.0353096230403637</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.6222340959518613</v>
@@ -1403,7 +1409,7 @@
         <v>0.215647370463664</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1540406283865256</v>
+        <v>0.1540406283865255</v>
       </c>
     </row>
     <row r="26">
@@ -1414,31 +1420,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05245100136450893</v>
+        <v>-0.05708250331065325</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3071794381279982</v>
+        <v>-0.3063343744625616</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.325299043257793</v>
+        <v>-0.3401187642914484</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1058099845786846</v>
+        <v>-0.1521906547459621</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3529719591784459</v>
+        <v>-0.3691390553225677</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4003071594433842</v>
+        <v>-0.3944048976567313</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07844107691540068</v>
+        <v>0.1041055680037452</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2177244336337998</v>
+        <v>-0.1951941508940507</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2429502343941103</v>
+        <v>-0.248753896890568</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1455,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.054447226388223</v>
+        <v>1.909198479277482</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.235805621279675</v>
+        <v>1.188674391836332</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.29929187238799</v>
+        <v>1.339884329520663</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.814109643565894</v>
+        <v>1.727308738007818</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.136951480935582</v>
+        <v>1.100477638232216</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8093895992625187</v>
+        <v>0.8220028597372331</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.374137287840902</v>
+        <v>1.400541692604452</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8406133448413877</v>
+        <v>0.8225420662948495</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8078756436793633</v>
+        <v>0.8036023656673857</v>
       </c>
     </row>
     <row r="28">
@@ -1512,7 +1518,7 @@
         <v>-0.3935845434791571</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.5507432062300134</v>
+        <v>0.5507432062300126</v>
       </c>
     </row>
     <row r="29">
@@ -1523,31 +1529,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.428729776243047</v>
+        <v>-2.286497785036459</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.154158184611337</v>
+        <v>-3.336033231216402</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.617609701392551</v>
+        <v>-3.481064012889185</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.94380095234861</v>
+        <v>-2.202759801492945</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.854156723436992</v>
+        <v>-1.97227448878927</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.1600165564378471</v>
+        <v>-0.1156184350653633</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.467929244495451</v>
+        <v>-1.467890479932292</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.805671213289894</v>
+        <v>-1.886828871584062</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.7884205251673249</v>
+        <v>-0.8285847072173884</v>
       </c>
     </row>
     <row r="30">
@@ -1558,31 +1564,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.373146255649628</v>
+        <v>2.333200001877536</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.129155173161476</v>
+        <v>1.00152728804752</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5214549700657642</v>
+        <v>0.5327465394180269</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.525413882139945</v>
+        <v>1.502022746414893</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.798845323644113</v>
+        <v>1.545028426854879</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.376251382465156</v>
+        <v>3.485933834751896</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.307718131861251</v>
+        <v>1.358548699548337</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8498311006653017</v>
+        <v>0.8576575819595516</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.968783299891334</v>
+        <v>1.904225051802383</v>
       </c>
     </row>
     <row r="31">
@@ -1599,7 +1605,7 @@
         <v>-0.3212460978076195</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.4282667770285421</v>
+        <v>-0.428266777028542</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.09433726441292202</v>
@@ -1617,7 +1623,7 @@
         <v>-0.1501867194595568</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.210156411827448</v>
+        <v>0.2101564118274477</v>
       </c>
     </row>
     <row r="32">
@@ -1628,31 +1634,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5145856976528534</v>
+        <v>-0.525949949988641</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.723836621826324</v>
+        <v>-0.7625455188031889</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7856862299924097</v>
+        <v>-0.7709695626052121</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5927863697617213</v>
+        <v>-0.6479644671685107</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.529763070454864</v>
+        <v>-0.5593697026066915</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.08395310335599374</v>
+        <v>-0.0884072845671266</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4266022343846035</v>
+        <v>-0.4400632280409273</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5166749510658033</v>
+        <v>-0.5158341116554702</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2400268516500662</v>
+        <v>-0.2499920997330145</v>
       </c>
     </row>
     <row r="33">
@@ -1663,31 +1669,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.440555582320399</v>
+        <v>1.337948659669178</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7590126006893271</v>
+        <v>0.7357148723748512</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.380125686558624</v>
+        <v>0.468279218706536</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.194632221979628</v>
+        <v>1.10681639377562</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.297775392041431</v>
+        <v>1.038727911698026</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.454714014084091</v>
+        <v>2.380309686321576</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7404085281607301</v>
+        <v>0.7610184841023039</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5153698966239212</v>
+        <v>0.4911721158751681</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.180168486027784</v>
+        <v>1.079059780795287</v>
       </c>
     </row>
     <row r="34">
@@ -1717,7 +1723,7 @@
         <v>-0.1210369212195143</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.8626877163304399</v>
+        <v>0.8626877163304393</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.6687527100900179</v>
@@ -1737,31 +1743,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.006987648134972</v>
+        <v>-0.9903739392141212</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.8628870793523625</v>
+        <v>-0.9335751790457952</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.2583610643906586</v>
+        <v>0.0615025654142296</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.4395565788954818</v>
+        <v>-0.4158553017376483</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.157851927076898</v>
+        <v>-1.162727809283393</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.2533417654754562</v>
+        <v>-0.19998385086353</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.3154901980886581</v>
+        <v>-0.3048688901907403</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.9364669759769323</v>
+        <v>-1.039393861432306</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.1025915130513789</v>
+        <v>0.08914531610565671</v>
       </c>
     </row>
     <row r="36">
@@ -1772,31 +1778,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.153324395343381</v>
+        <v>1.970981712391459</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.237752446733379</v>
+        <v>2.036731169987058</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.814961138490887</v>
+        <v>8.458655503677186</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.074505248147906</v>
+        <v>2.029390323734704</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.080755238158363</v>
+        <v>1.01643055467873</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.1452390939182</v>
+        <v>2.310100416324072</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.734658141352025</v>
+        <v>1.829856982409769</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.8865270074596726</v>
+        <v>0.8820562737120303</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.733745161956316</v>
+        <v>2.651544530950842</v>
       </c>
     </row>
     <row r="37">
@@ -1822,7 +1828,7 @@
         <v>-0.06816235805481405</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4858255515551297</v>
+        <v>0.4858255515551293</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4293256706537492</v>
@@ -1831,7 +1837,7 @@
         <v>-0.02189490287789803</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.8023520556368572</v>
+        <v>0.8023520556368567</v>
       </c>
     </row>
     <row r="38">
@@ -1845,22 +1851,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.2121690566818911</v>
+        <v>-0.2059340825174802</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5194486256648461</v>
+        <v>-0.5191942692959428</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1220421133356587</v>
+        <v>-0.1171715497610722</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1513780221371794</v>
+        <v>-0.2053496793371382</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4777759957544785</v>
+        <v>-0.5072497217737952</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.03116743331599828</v>
+        <v>0.02270410831739297</v>
       </c>
     </row>
     <row r="39">
@@ -1874,22 +1880,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>1.556175487043661</v>
+        <v>1.636267077265107</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.8416822816768618</v>
+        <v>0.8630061868871551</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.747494339987455</v>
+        <v>1.901388909635095</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.465974421344334</v>
+        <v>1.628383857561108</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.8292840981983284</v>
+        <v>0.7627785880114147</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.304647212532287</v>
+        <v>2.338147259645126</v>
       </c>
     </row>
     <row r="40">
@@ -1939,31 +1945,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.2370254067282638</v>
+        <v>0.2727478890439253</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.3898016753272853</v>
+        <v>-0.4241493200783446</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.1392779072202287</v>
+        <v>-0.1468227210096</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.1527351198232426</v>
+        <v>-0.118304299392388</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.7555304725226298</v>
+        <v>-0.6267364145991157</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.2340309640682324</v>
+        <v>0.2522999376212058</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.2914977021056827</v>
+        <v>0.2970486538126595</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.3424511457537756</v>
+        <v>-0.3647688675932254</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.3039568195824487</v>
+        <v>0.2897404746702174</v>
       </c>
     </row>
     <row r="42">
@@ -1974,31 +1980,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.821292465852961</v>
+        <v>1.82521456129221</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.9584689811822908</v>
+        <v>0.9546786228567163</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.298455340774637</v>
+        <v>1.365610361124029</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.398991277230194</v>
+        <v>1.424968533007403</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.7791257707058097</v>
+        <v>0.7402453119155044</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.736935890859576</v>
+        <v>1.718762986932325</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.330836993074095</v>
+        <v>1.431372028951601</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.6351337690173066</v>
+        <v>0.6422632514671517</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.315920743320486</v>
+        <v>1.350084581967124</v>
       </c>
     </row>
     <row r="43">
@@ -2044,31 +2050,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1080388876602758</v>
+        <v>0.1285074825794029</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1866992600248237</v>
+        <v>-0.2048835997756533</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.0811213593181213</v>
+        <v>-0.05891302981656081</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.0647249938491461</v>
+        <v>-0.05759010755199655</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3007938191900372</v>
+        <v>-0.2536834572351453</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.09527845816193517</v>
+        <v>0.07576953474753725</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1215374673254086</v>
+        <v>0.1275752076528324</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1529074323827905</v>
+        <v>-0.1623105512978894</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1213471280015249</v>
+        <v>0.1289802378796418</v>
       </c>
     </row>
     <row r="45">
@@ -2079,31 +2085,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.219827514545416</v>
+        <v>1.231837739523945</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.677666145395891</v>
+        <v>0.6721307749206955</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.8698052902028952</v>
+        <v>0.9784273516649697</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7437150351578977</v>
+        <v>0.7257515681131081</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.414616637726328</v>
+        <v>0.4080256269808611</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9326623592590083</v>
+        <v>0.8810389104162303</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7405527935016526</v>
+        <v>0.7798328571474904</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3567039256101763</v>
+        <v>0.3620554498808169</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.7335017340175615</v>
+        <v>0.7775218441383046</v>
       </c>
     </row>
     <row r="46">
